--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Il18-Il18rap.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Il18-Il18rap.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -85,13 +88,13 @@
     <t>M2</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Il18</t>
   </si>
   <si>
     <t>Il18rap</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>5.61401705620317</v>
+        <v>0.355871</v>
       </c>
       <c r="H2">
-        <v>5.61401705620317</v>
+        <v>1.067613</v>
       </c>
       <c r="I2">
-        <v>0.1369552603194661</v>
+        <v>0.007561690114054128</v>
       </c>
       <c r="J2">
-        <v>0.1369552603194661</v>
+        <v>0.007561690114054128</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.598745563925313</v>
+        <v>0.609343</v>
       </c>
       <c r="N2">
-        <v>0.598745563925313</v>
+        <v>1.828029</v>
       </c>
       <c r="O2">
-        <v>0.2199657985452714</v>
+        <v>0.1373321342254572</v>
       </c>
       <c r="P2">
-        <v>0.2199657985452714</v>
+        <v>0.1373321342254572</v>
       </c>
       <c r="Q2">
-        <v>3.361367808202692</v>
+        <v>0.216847502753</v>
       </c>
       <c r="R2">
-        <v>3.361367808202692</v>
+        <v>1.951627524777</v>
       </c>
       <c r="S2">
-        <v>0.03012547320114689</v>
+        <v>0.001038463041714594</v>
       </c>
       <c r="T2">
-        <v>0.03012547320114689</v>
+        <v>0.001038463041714594</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>5.61401705620317</v>
+        <v>0.355871</v>
       </c>
       <c r="H3">
-        <v>5.61401705620317</v>
+        <v>1.067613</v>
       </c>
       <c r="I3">
-        <v>0.1369552603194661</v>
+        <v>0.007561690114054128</v>
       </c>
       <c r="J3">
-        <v>0.1369552603194661</v>
+        <v>0.007561690114054128</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.868399797335898</v>
+        <v>2.369645666666667</v>
       </c>
       <c r="N3">
-        <v>0.868399797335898</v>
+        <v>7.108937</v>
       </c>
       <c r="O3">
-        <v>0.3190307642953495</v>
+        <v>0.5340645527419526</v>
       </c>
       <c r="P3">
-        <v>0.3190307642953495</v>
+        <v>0.5340645527419526</v>
       </c>
       <c r="Q3">
-        <v>4.875211273847107</v>
+        <v>0.8432881730423333</v>
       </c>
       <c r="R3">
-        <v>4.875211273847107</v>
+        <v>7.589593557381</v>
       </c>
       <c r="S3">
-        <v>0.04369294137398783</v>
+        <v>0.004038430648735563</v>
       </c>
       <c r="T3">
-        <v>0.04369294137398783</v>
+        <v>0.004038430648735563</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>5.61401705620317</v>
+        <v>0.355871</v>
       </c>
       <c r="H4">
-        <v>5.61401705620317</v>
+        <v>1.067613</v>
       </c>
       <c r="I4">
-        <v>0.1369552603194661</v>
+        <v>0.007561690114054128</v>
       </c>
       <c r="J4">
-        <v>0.1369552603194661</v>
+        <v>0.007561690114054128</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.25484854817869</v>
+        <v>1.458013666666667</v>
       </c>
       <c r="N4">
-        <v>1.25484854817869</v>
+        <v>4.374041</v>
       </c>
       <c r="O4">
-        <v>0.4610034371593791</v>
+        <v>0.3286033130325903</v>
       </c>
       <c r="P4">
-        <v>0.4610034371593791</v>
+        <v>0.3286033130325903</v>
       </c>
       <c r="Q4">
-        <v>7.04474115242695</v>
+        <v>0.5188647815703333</v>
       </c>
       <c r="R4">
-        <v>7.04474115242695</v>
+        <v>4.669783034132999</v>
       </c>
       <c r="S4">
-        <v>0.06313684574433141</v>
+        <v>0.002484796423603972</v>
       </c>
       <c r="T4">
-        <v>0.06313684574433141</v>
+        <v>0.002484796423603972</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +711,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.9743833010561</v>
+        <v>5.705585666666667</v>
       </c>
       <c r="H5">
-        <v>11.9743833010561</v>
+        <v>17.116757</v>
       </c>
       <c r="I5">
-        <v>0.2921178838153243</v>
+        <v>0.1212345786268683</v>
       </c>
       <c r="J5">
-        <v>0.2921178838153243</v>
+        <v>0.1212345786268683</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.598745563925313</v>
+        <v>0.609343</v>
       </c>
       <c r="N5">
-        <v>0.598745563925313</v>
+        <v>1.828029</v>
       </c>
       <c r="O5">
-        <v>0.2199657985452714</v>
+        <v>0.1373321342254572</v>
       </c>
       <c r="P5">
-        <v>0.2199657985452714</v>
+        <v>0.1373321342254572</v>
       </c>
       <c r="Q5">
-        <v>7.169608882248686</v>
+        <v>3.476658686883666</v>
       </c>
       <c r="R5">
-        <v>7.169608882248686</v>
+        <v>31.289928181953</v>
       </c>
       <c r="S5">
-        <v>0.06425594358279262</v>
+        <v>0.01664940342475182</v>
       </c>
       <c r="T5">
-        <v>0.06425594358279262</v>
+        <v>0.01664940342475182</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +773,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.9743833010561</v>
+        <v>5.705585666666667</v>
       </c>
       <c r="H6">
-        <v>11.9743833010561</v>
+        <v>17.116757</v>
       </c>
       <c r="I6">
-        <v>0.2921178838153243</v>
+        <v>0.1212345786268683</v>
       </c>
       <c r="J6">
-        <v>0.2921178838153243</v>
+        <v>0.1212345786268683</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.868399797335898</v>
+        <v>2.369645666666667</v>
       </c>
       <c r="N6">
-        <v>0.868399797335898</v>
+        <v>7.108937</v>
       </c>
       <c r="O6">
-        <v>0.3190307642953495</v>
+        <v>0.5340645527419526</v>
       </c>
       <c r="P6">
-        <v>0.3190307642953495</v>
+        <v>0.5340645527419526</v>
       </c>
       <c r="Q6">
-        <v>10.39855203185948</v>
+        <v>13.52021635081211</v>
       </c>
       <c r="R6">
-        <v>10.39855203185948</v>
+        <v>121.681947157309</v>
       </c>
       <c r="S6">
-        <v>0.09319459173794301</v>
+        <v>0.06474709101121753</v>
       </c>
       <c r="T6">
-        <v>0.09319459173794301</v>
+        <v>0.06474709101121753</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.9743833010561</v>
+        <v>5.705585666666667</v>
       </c>
       <c r="H7">
-        <v>11.9743833010561</v>
+        <v>17.116757</v>
       </c>
       <c r="I7">
-        <v>0.2921178838153243</v>
+        <v>0.1212345786268683</v>
       </c>
       <c r="J7">
-        <v>0.2921178838153243</v>
+        <v>0.1212345786268683</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.25484854817869</v>
+        <v>1.458013666666667</v>
       </c>
       <c r="N7">
-        <v>1.25484854817869</v>
+        <v>4.374041</v>
       </c>
       <c r="O7">
-        <v>0.4610034371593791</v>
+        <v>0.3286033130325903</v>
       </c>
       <c r="P7">
-        <v>0.4610034371593791</v>
+        <v>0.3286033130325903</v>
       </c>
       <c r="Q7">
-        <v>15.0260375006654</v>
+        <v>8.318821878337445</v>
       </c>
       <c r="R7">
-        <v>15.0260375006654</v>
+        <v>74.86939690503701</v>
       </c>
       <c r="S7">
-        <v>0.1346673484945886</v>
+        <v>0.03983808419089899</v>
       </c>
       <c r="T7">
-        <v>0.1346673484945886</v>
+        <v>0.03983808419089899</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +897,61 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>23.4032128389607</v>
+        <v>12.004564</v>
       </c>
       <c r="H8">
-        <v>23.4032128389607</v>
+        <v>36.013692</v>
       </c>
       <c r="I8">
-        <v>0.5709268558652095</v>
+        <v>0.2550778032554776</v>
       </c>
       <c r="J8">
-        <v>0.5709268558652095</v>
+        <v>0.2550778032554776</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.598745563925313</v>
+        <v>0.609343</v>
       </c>
       <c r="N8">
-        <v>0.598745563925313</v>
+        <v>1.828029</v>
       </c>
       <c r="O8">
-        <v>0.2199657985452714</v>
+        <v>0.1373321342254572</v>
       </c>
       <c r="P8">
-        <v>0.2199657985452714</v>
+        <v>0.1373321342254572</v>
       </c>
       <c r="Q8">
-        <v>14.01256986892765</v>
+        <v>7.314897041451999</v>
       </c>
       <c r="R8">
-        <v>14.01256986892765</v>
+        <v>65.83407337306799</v>
       </c>
       <c r="S8">
-        <v>0.1255843817613319</v>
+        <v>0.03503037911461601</v>
       </c>
       <c r="T8">
-        <v>0.1255843817613319</v>
+        <v>0.03503037911461601</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +959,61 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>23.4032128389607</v>
+        <v>12.004564</v>
       </c>
       <c r="H9">
-        <v>23.4032128389607</v>
+        <v>36.013692</v>
       </c>
       <c r="I9">
-        <v>0.5709268558652095</v>
+        <v>0.2550778032554776</v>
       </c>
       <c r="J9">
-        <v>0.5709268558652095</v>
+        <v>0.2550778032554776</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.868399797335898</v>
+        <v>2.369645666666667</v>
       </c>
       <c r="N9">
-        <v>0.868399797335898</v>
+        <v>7.108937</v>
       </c>
       <c r="O9">
-        <v>0.3190307642953495</v>
+        <v>0.5340645527419526</v>
       </c>
       <c r="P9">
-        <v>0.3190307642953495</v>
+        <v>0.5340645527419526</v>
       </c>
       <c r="Q9">
-        <v>20.32334528636236</v>
+        <v>28.44656306282267</v>
       </c>
       <c r="R9">
-        <v>20.32334528636236</v>
+        <v>256.019067565404</v>
       </c>
       <c r="S9">
-        <v>0.1821432311834186</v>
+        <v>0.1362280129100364</v>
       </c>
       <c r="T9">
-        <v>0.1821432311834186</v>
+        <v>0.1362280129100364</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1021,433 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>12.004564</v>
+      </c>
+      <c r="H10">
+        <v>36.013692</v>
+      </c>
+      <c r="I10">
+        <v>0.2550778032554776</v>
+      </c>
+      <c r="J10">
+        <v>0.2550778032554776</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.458013666666667</v>
+      </c>
+      <c r="N10">
+        <v>4.374041</v>
+      </c>
+      <c r="O10">
+        <v>0.3286033130325903</v>
+      </c>
+      <c r="P10">
+        <v>0.3286033130325903</v>
+      </c>
+      <c r="Q10">
+        <v>17.50281837437467</v>
+      </c>
+      <c r="R10">
+        <v>157.525365369372</v>
+      </c>
+      <c r="S10">
+        <v>0.08381941123082519</v>
+      </c>
+      <c r="T10">
+        <v>0.08381941123082519</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>27.21711066666667</v>
+      </c>
+      <c r="H11">
+        <v>81.651332</v>
+      </c>
+      <c r="I11">
+        <v>0.5783201122351933</v>
+      </c>
+      <c r="J11">
+        <v>0.5783201122351933</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.609343</v>
+      </c>
+      <c r="N11">
+        <v>1.828029</v>
+      </c>
+      <c r="O11">
+        <v>0.1373321342254572</v>
+      </c>
+      <c r="P11">
+        <v>0.1373321342254572</v>
+      </c>
+      <c r="Q11">
+        <v>16.58455586495867</v>
+      </c>
+      <c r="R11">
+        <v>149.261002784628</v>
+      </c>
+      <c r="S11">
+        <v>0.07942193527876502</v>
+      </c>
+      <c r="T11">
+        <v>0.07942193527876502</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>27.21711066666667</v>
+      </c>
+      <c r="H12">
+        <v>81.651332</v>
+      </c>
+      <c r="I12">
+        <v>0.5783201122351933</v>
+      </c>
+      <c r="J12">
+        <v>0.5783201122351933</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>2.369645666666667</v>
+      </c>
+      <c r="N12">
+        <v>7.108937</v>
+      </c>
+      <c r="O12">
+        <v>0.5340645527419526</v>
+      </c>
+      <c r="P12">
+        <v>0.5340645527419526</v>
+      </c>
+      <c r="Q12">
+        <v>64.49490835045377</v>
+      </c>
+      <c r="R12">
+        <v>580.4541751540839</v>
+      </c>
+      <c r="S12">
+        <v>0.3088602720825644</v>
+      </c>
+      <c r="T12">
+        <v>0.3088602720825644</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>27.21711066666667</v>
+      </c>
+      <c r="H13">
+        <v>81.651332</v>
+      </c>
+      <c r="I13">
+        <v>0.5783201122351933</v>
+      </c>
+      <c r="J13">
+        <v>0.5783201122351933</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.458013666666667</v>
+      </c>
+      <c r="N13">
+        <v>4.374041</v>
+      </c>
+      <c r="O13">
+        <v>0.3286033130325903</v>
+      </c>
+      <c r="P13">
+        <v>0.3286033130325903</v>
+      </c>
+      <c r="Q13">
+        <v>39.68291931917911</v>
+      </c>
+      <c r="R13">
+        <v>357.146273872612</v>
+      </c>
+      <c r="S13">
+        <v>0.190037904873864</v>
+      </c>
+      <c r="T13">
+        <v>0.190037904873864</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
         <v>25</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>23.4032128389607</v>
-      </c>
-      <c r="H10">
-        <v>23.4032128389607</v>
-      </c>
-      <c r="I10">
-        <v>0.5709268558652095</v>
-      </c>
-      <c r="J10">
-        <v>0.5709268558652095</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>1.25484854817869</v>
-      </c>
-      <c r="N10">
-        <v>1.25484854817869</v>
-      </c>
-      <c r="O10">
-        <v>0.4610034371593791</v>
-      </c>
-      <c r="P10">
-        <v>0.4610034371593791</v>
-      </c>
-      <c r="Q10">
-        <v>29.36748765368671</v>
-      </c>
-      <c r="R10">
-        <v>29.36748765368671</v>
-      </c>
-      <c r="S10">
-        <v>0.263199242920459</v>
-      </c>
-      <c r="T10">
-        <v>0.263199242920459</v>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>1.779231</v>
+      </c>
+      <c r="H14">
+        <v>5.337693</v>
+      </c>
+      <c r="I14">
+        <v>0.03780581576840664</v>
+      </c>
+      <c r="J14">
+        <v>0.03780581576840664</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.609343</v>
+      </c>
+      <c r="N14">
+        <v>1.828029</v>
+      </c>
+      <c r="O14">
+        <v>0.1373321342254572</v>
+      </c>
+      <c r="P14">
+        <v>0.1373321342254572</v>
+      </c>
+      <c r="Q14">
+        <v>1.084161955233</v>
+      </c>
+      <c r="R14">
+        <v>9.757457597097</v>
+      </c>
+      <c r="S14">
+        <v>0.005191953365609726</v>
+      </c>
+      <c r="T14">
+        <v>0.005191953365609727</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>1.779231</v>
+      </c>
+      <c r="H15">
+        <v>5.337693</v>
+      </c>
+      <c r="I15">
+        <v>0.03780581576840664</v>
+      </c>
+      <c r="J15">
+        <v>0.03780581576840664</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>2.369645666666667</v>
+      </c>
+      <c r="N15">
+        <v>7.108937</v>
+      </c>
+      <c r="O15">
+        <v>0.5340645527419526</v>
+      </c>
+      <c r="P15">
+        <v>0.5340645527419526</v>
+      </c>
+      <c r="Q15">
+        <v>4.216147029149</v>
+      </c>
+      <c r="R15">
+        <v>37.945323262341</v>
+      </c>
+      <c r="S15">
+        <v>0.02019074608939875</v>
+      </c>
+      <c r="T15">
+        <v>0.02019074608939875</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>1.779231</v>
+      </c>
+      <c r="H16">
+        <v>5.337693</v>
+      </c>
+      <c r="I16">
+        <v>0.03780581576840664</v>
+      </c>
+      <c r="J16">
+        <v>0.03780581576840664</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.458013666666667</v>
+      </c>
+      <c r="N16">
+        <v>4.374041</v>
+      </c>
+      <c r="O16">
+        <v>0.3286033130325903</v>
+      </c>
+      <c r="P16">
+        <v>0.3286033130325903</v>
+      </c>
+      <c r="Q16">
+        <v>2.594143114157</v>
+      </c>
+      <c r="R16">
+        <v>23.347288027413</v>
+      </c>
+      <c r="S16">
+        <v>0.01242311631339816</v>
+      </c>
+      <c r="T16">
+        <v>0.01242311631339816</v>
       </c>
     </row>
   </sheetData>
